--- a/Documentação/ControleAtividadesEquipe.xlsx
+++ b/Documentação/ControleAtividadesEquipe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rescuer\Documents\Jurema\doutorado\Reuso de SW\trabalho SPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rescuer\Documents\Jurema\doutorado\Reuso de SW\trabalho SPL\checkout\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Controle Atividades Equipe</t>
   </si>
@@ -107,6 +107,24 @@
   </si>
   <si>
     <t>Compilação Condicional (Tags)</t>
+  </si>
+  <si>
+    <t>Criação da Interface
+Pesquisa, perfil, gerenciamento de usuários, gerenciamento de produtos, gerenciamento de categorias</t>
+  </si>
+  <si>
+    <t>Allan Oliveira
+Felipe
+Raphael
+Robson
+Thiago
+Walter</t>
+  </si>
+  <si>
+    <t>conexão com o banco MySQL</t>
+  </si>
+  <si>
+    <t>Allan Oliveira</t>
   </si>
 </sst>
 </file>
@@ -185,9 +203,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -198,6 +213,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,7 +499,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,256 +513,272 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>42427</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <f>A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>42431</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <f t="shared" ref="A6:A18" si="0">A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>42431</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4">
+        <v>42431</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4">
+        <v>42431</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4">
+        <v>42430</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4">
+        <v>42431</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D12" s="4">
         <v>42431</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="5">
-        <v>42431</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="5">
-        <v>42430</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F19" s="1"/>

--- a/Documentação/ControleAtividadesEquipe.xlsx
+++ b/Documentação/ControleAtividadesEquipe.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>Controle Atividades Equipe</t>
   </si>
@@ -81,13 +81,7 @@
     <t>Felipe</t>
   </si>
   <si>
-    <t>Documentar modelo de dados, interface e feature model</t>
-  </si>
-  <si>
     <t>Jurema</t>
-  </si>
-  <si>
-    <t>Na reunião de quinta definiremos como ficará documentado e a data de finalização</t>
   </si>
   <si>
     <t>Informar versões dos softwares para configuração das máquinas</t>
@@ -98,9 +92,6 @@
   </si>
   <si>
     <t>Samia já passou a configuração e Jurema disponibilizou para a equipe por email e colocou no github.</t>
-  </si>
-  <si>
-    <t>Felipe, conversar com Robson para maiores detalhes</t>
   </si>
   <si>
     <t>Criação da interface (mockup)</t>
@@ -124,14 +115,75 @@
     <t>conexão com o banco MySQL</t>
   </si>
   <si>
-    <t>Allan Oliveira</t>
+    <t>Documentar requisitos, modelo de dados, interface e feature model</t>
+  </si>
+  <si>
+    <t>Desenvolvimento do façade</t>
+  </si>
+  <si>
+    <t>Java app</t>
+  </si>
+  <si>
+    <t>Trabalharam nessa atividade: Alan Santos, Angela e Samia</t>
+  </si>
+  <si>
+    <t>Como está essa atividade?
+Cobrar as interfaces das pessoas</t>
+  </si>
+  <si>
+    <t>Essa atividade só poderá ser finalizada depois que fecharmos os feature model
+Essa atividade vai ser desenvolvida para várias entregas</t>
+  </si>
+  <si>
+    <t>Para a entrega de 10/03: requisitos e feature model
+Ver com Taijara os demais documentos necessários</t>
+  </si>
+  <si>
+    <t>Angela
+Alexil
+Samia</t>
+  </si>
+  <si>
+    <t>Sama já desenvolveu o de Categorias</t>
+  </si>
+  <si>
+    <t>Allan Santos</t>
+  </si>
+  <si>
+    <t>Feature Model</t>
+  </si>
+  <si>
+    <t>Angela
+Alan Santos
+Jurema
+Samia</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categorias: Robson
+Pesquisa: Alan Oliveira
+Gerenciamento de produtos: Thiago, Robson e Alexandre
+Faq, Carrinho: Felipe
+Perfil: Walter
+Gerenciamento de Usuários: Rafael 
+Sugestões: Alan Santos
+</t>
+  </si>
+  <si>
+    <t>Modelo de Dados - desafio</t>
+  </si>
+  <si>
+    <t>Alexandre
+Walter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,16 +200,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FF222222"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <u/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -198,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -212,10 +277,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,29 +573,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -596,46 +671,48 @@
         <v>42431</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="14">
+        <v>42431</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="4">
-        <v>42431</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="4">
-        <v>42431</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3" t="s">
-        <v>23</v>
+      <c r="F8" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -643,16 +720,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3" t="s">
-        <v>19</v>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -661,10 +740,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="4">
         <v>42430</v>
@@ -673,7 +752,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -681,19 +760,21 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="B11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="9">
         <v>42431</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -701,7 +782,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -714,58 +795,90 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
+      <c r="B13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="9">
+        <v>42438</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="9">
+        <v>42438</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="9">
+        <v>42437</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="9">
+        <v>42437</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="B17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="9">
+        <v>42438</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
     </row>
